--- a/data/trans_bre/P1426-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1426-Edad-trans_bre.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>-0.9739812448323871</v>
+        <v>-1.439485649868298</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.747745353004521</v>
+        <v>3.553143908280063</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.260817624719244</v>
+        <v>-1.207758530499923</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1633244393094133</v>
+        <v>0.1592812149704254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07720134287312541</v>
+        <v>0.05478656704306122</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.075246635679275</v>
+        <v>1.072838702578067</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.713645821380744</v>
+        <v>1.443003997296492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.33198832413213</v>
+        <v>2.250289832566349</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -765,7 +765,7 @@
         <v>3.084316016355272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.8004032449445985</v>
+        <v>-0.8004032449445984</v>
       </c>
     </row>
     <row r="11">
@@ -776,20 +776,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8795928806246969</v>
+        <v>-1.014711449173698</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.004418893007135964</v>
+        <v>-0.1324051502306941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.500844604016891</v>
+        <v>-2.617979892657721</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8540652370264296</v>
+        <v>-0.8510591249888615</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.9670201238725531</v>
+        <v>-0.961490880622739</v>
       </c>
     </row>
     <row r="12">
@@ -800,20 +800,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8478919201834877</v>
+        <v>0.8001633843938798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.15223700493285</v>
+        <v>1.253563640596332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3439473915500552</v>
+        <v>-0.3813914855750739</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.179654271426238</v>
+        <v>2.625244865109164</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>-0.06976471046584418</v>
+        <v>-0.07643059028024982</v>
       </c>
     </row>
     <row r="13">
@@ -834,7 +834,7 @@
         <v>-0.4673612353350412</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-1.005991929437573</v>
+        <v>-1.005991929437572</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5032226828037907</v>
@@ -843,7 +843,7 @@
         <v>-0.4090867970025983</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3175682936863406</v>
+        <v>-0.3175682936863403</v>
       </c>
     </row>
     <row r="14">
@@ -854,22 +854,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6689366255616663</v>
+        <v>-0.6641809519743952</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.645109424136131</v>
+        <v>-1.556475731590494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.6074534400946</v>
+        <v>-2.528444006022128</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7199118162730843</v>
+        <v>-0.6938935729486035</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8815163590083387</v>
+        <v>-0.9005718218076064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.607119783888755</v>
+        <v>-0.609828065509067</v>
       </c>
     </row>
     <row r="15">
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.337087085019203</v>
+        <v>1.411190197117762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5742799869408446</v>
+        <v>0.5639005101569469</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5514908350095145</v>
+        <v>0.5147071746849937</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6.131762720241377</v>
+        <v>5.368584485069095</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.517602804196873</v>
+        <v>1.56357458626148</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2684942330809217</v>
+        <v>0.2823111378766376</v>
       </c>
     </row>
     <row r="16">
@@ -916,7 +916,7 @@
         <v>0.3383368830650941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.648989585750229</v>
+        <v>-1.648989585750228</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.4479396574979672</v>
@@ -925,7 +925,7 @@
         <v>0.1369828749231242</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.2971592868287987</v>
+        <v>-0.2971592868287986</v>
       </c>
     </row>
     <row r="17">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.21390047962198</v>
+        <v>-3.365501843099741</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.130168785167713</v>
+        <v>-1.996156540913533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.867812997990696</v>
+        <v>-3.674156090385652</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.8480997312607779</v>
+        <v>-0.8426246853240125</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5630997668100833</v>
+        <v>-0.5804956245379546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5591589802005861</v>
+        <v>-0.5441399733994022</v>
       </c>
     </row>
     <row r="18">
@@ -962,22 +962,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7744955984212378</v>
+        <v>0.6677181918158689</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.498388230147825</v>
+        <v>2.477550104176207</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4231648325780289</v>
+        <v>0.3305769040490169</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.7456926409664756</v>
+        <v>0.6325234779716968</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.143256754421125</v>
+        <v>2.015694835008086</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1128372014736264</v>
+        <v>0.0920629034770607</v>
       </c>
     </row>
     <row r="19">
@@ -1018,22 +1018,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.443265807374397</v>
+        <v>-7.074519744756646</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.121830681364327</v>
+        <v>2.133266561535114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.540403241682778</v>
+        <v>-4.768008008506516</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8773801168360049</v>
+        <v>-0.8773846350723605</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5414669425135853</v>
+        <v>0.5865949589038281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4382121746795411</v>
+        <v>-0.4569133055930301</v>
       </c>
     </row>
     <row r="21">
@@ -1044,22 +1044,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.923232012562885</v>
+        <v>-0.9111829532424487</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.942332565792218</v>
+        <v>7.813433054251149</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.015628133749585</v>
+        <v>1.190241134578724</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1601821730420811</v>
+        <v>-0.09018054909775743</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.210836867357589</v>
+        <v>10.43668843095766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1634907845155068</v>
+        <v>0.1889332867293429</v>
       </c>
     </row>
     <row r="22">
@@ -1080,7 +1080,7 @@
         <v>-3.052739216621653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2074095427978151</v>
+        <v>0.2074095427978123</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>1.302540316559679</v>
@@ -1089,7 +1089,7 @@
         <v>-0.3572609276096028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01033259565267535</v>
+        <v>0.01033259565267522</v>
       </c>
     </row>
     <row r="23">
@@ -1100,22 +1100,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.535435511928911</v>
+        <v>1.381995926894116</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.561838932336072</v>
+        <v>-6.997753027293303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.494018792208393</v>
+        <v>-4.02988391637226</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1912247042786695</v>
+        <v>0.1722443779289751</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6708691734423281</v>
+        <v>-0.6480025050879351</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1925843500530612</v>
+        <v>-0.1771881772148121</v>
       </c>
     </row>
     <row r="24">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.726927526081504</v>
+        <v>9.796910809562727</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7660208782991605</v>
+        <v>0.5876093075011799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.816680234567178</v>
+        <v>5.005679273665569</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>4.178331200659981</v>
+        <v>3.7614942870307</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1494725795679794</v>
+        <v>0.1064399388269645</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2862053934746743</v>
+        <v>0.2885157417243109</v>
       </c>
     </row>
     <row r="25">
@@ -1162,7 +1162,7 @@
         <v>0.5913039448943092</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.02923173135544743</v>
+        <v>0.02923173135544674</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2029519271681407</v>
@@ -1171,7 +1171,7 @@
         <v>0.4093003746120534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006287277413153391</v>
+        <v>0.006287277413153242</v>
       </c>
     </row>
     <row r="26">
@@ -1182,22 +1182,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.2552191418438832</v>
+        <v>-0.36146010245783</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.01766105520426551</v>
+        <v>-0.08824066125484391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.8042548432500752</v>
+        <v>-0.8099645707094846</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1453037838261875</v>
+        <v>-0.1905037851916103</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02470182483646176</v>
+        <v>-0.05170358369474872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1578330906310855</v>
+        <v>-0.1550836400818065</v>
       </c>
     </row>
     <row r="27">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.015840719175322</v>
+        <v>0.9167063309050063</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.257404717501849</v>
+        <v>1.277838797701749</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7982587593383378</v>
+        <v>0.8879475864426741</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8417976437351344</v>
+        <v>0.7508223740118306</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.074444755140077</v>
+        <v>1.132812414960971</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1908957292059421</v>
+        <v>0.2123404444976019</v>
       </c>
     </row>
     <row r="28">
